--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/MONTANA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/MONTANA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C2">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C14">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C23">
@@ -830,7 +830,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C33">
@@ -926,7 +926,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C40">
@@ -939,7 +939,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C41">
@@ -1162,7 +1162,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C57">
@@ -1188,7 +1188,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C59">
@@ -1421,7 +1421,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C75">
@@ -1468,41 +1468,6 @@
       </c>
       <c r="D78">
         <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/MONTANA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/MONTANA_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Totolapa</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Cusihuiriachi</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>León</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1160,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1173,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -1186,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -1199,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1230,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -1243,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -1256,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1287,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1349,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -1362,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1393,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -1406,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -1419,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -1432,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1445,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
